--- a/biology/Zoologie/Gerbille_de_l'Agag/Gerbille_de_l'Agag.xlsx
+++ b/biology/Zoologie/Gerbille_de_l'Agag/Gerbille_de_l'Agag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gerbille_de_l%27Agag</t>
+          <t>Gerbille_de_l'Agag</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Gerbillus agag
-La Gerbille de l'Agag[1] (Gerbillus agag ou Gerbillus (Gerbillus) agag) est une espèce qui fait partie des rongeurs. C'est une gerbille africaine de la famille des Muridés et originaire du Soudan.
-Synonymes[2] :
-Gerbillus cosensi Dollman, 1914 - une autre espèce selon ITIS[3] et Catalogue of life[4]
-Gerbillus dalloni Heim de Balsac, 1936 - une autre espèce selon UICN[5]
+La Gerbille de l'Agag (Gerbillus agag ou Gerbillus (Gerbillus) agag) est une espèce qui fait partie des rongeurs. C'est une gerbille africaine de la famille des Muridés et originaire du Soudan.
+Synonymes :
+Gerbillus cosensi Dollman, 1914 - une autre espèce selon ITIS et Catalogue of life
+Gerbillus dalloni Heim de Balsac, 1936 - une autre espèce selon UICN
 Gerbillus maradius Kock, 1978</t>
         </is>
       </c>
